--- a/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7516,7 +7517,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -7548,7 +7548,6 @@
           <t>新疆前海联合添泽债券C</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>89.39</t>
@@ -7580,7 +7579,6 @@
           <t>华泰柏瑞量化增强混合C</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>89.44</t>
@@ -7612,7 +7610,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>89.44</t>
@@ -7644,7 +7641,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -7660,6 +7656,3708 @@
       </c>
       <c r="H115" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7972</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3265</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3261</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1632</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1524</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6720</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5694</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008441</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008442</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11363,4 +11364,3518 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8399</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3386</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1661</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8454</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7537</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6423</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5374</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3700</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>68.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14878,4 +14879,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>114</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14887,7 +14888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14898,17 +14899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14918,14 +14939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>91</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.67</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -14934,14 +14977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.69</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -14950,14 +15015,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>114</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.34</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14966,13 +15053,1823 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4392</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5608</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4761</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3384</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9996</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9259</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8557</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7256</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6786</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6478</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6034</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>114</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16768,7 +16769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16779,17 +16780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16799,14 +16820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.86</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -16815,14 +16858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>91</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.67</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -16831,14 +16896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>96</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.69</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -16847,14 +16934,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>114</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48.34</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -16863,13 +16972,3319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6244</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1594</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1442</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0267</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9673</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8993</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8555</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8555</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7783</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7552</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6748</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6699</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5149</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4814</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>114</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>74</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20167,7 +20168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20178,17 +20179,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20198,14 +20219,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.31</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -20214,14 +20257,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.86</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -20230,14 +20295,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>53.67</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -20246,14 +20333,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>96</v>
-      </c>
-      <c r="D5" t="n">
-        <v>49.69</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -20262,14 +20371,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>114</v>
-      </c>
-      <c r="D6" t="n">
-        <v>48.34</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -20278,13 +20409,4545 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>104.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8304</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7392</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5768</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4397</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3264</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3141</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9364</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8624</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8151</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7280</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6680</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6582</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6361</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4879</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红领先精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>114</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>74</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>18.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600926-杭州银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D2" t="n">
-        <v>60.11</v>
+        <v>49.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D3" t="n">
-        <v>46.31</v>
+        <v>60.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>42.86</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>53.67</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>49.69</v>
+        <v>53.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D7" t="n">
-        <v>48.34</v>
+        <v>49.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>114</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>18.37</v>
       </c>
     </row>
@@ -600,6 +617,5568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8213</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6544</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银新金融股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5826</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4204</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0539</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8330</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6856</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5961</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5293</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5185</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5122</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4905</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4385</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝多策略增长A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015387</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方红领先精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004513</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015388</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001641</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>68.15</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004512</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015614</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009149</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>68.15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015613</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝多策略增长C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>016134</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5245,7 +10824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8643,7 +14222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10523,7 +16102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14037,7 +19616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17739,7 +23318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22092,7 +27671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
